--- a/tables/personal/gender.xlsx
+++ b/tables/personal/gender.xlsx
@@ -402,10 +402,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C2">
-        <v>67.2</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -413,10 +413,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C3">
-        <v>32.8</v>
+        <v>32.5</v>
       </c>
     </row>
   </sheetData>
